--- a/trend_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
+++ b/trend_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.751241111935006</v>
+        <v>0.248758888064994</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.921046881635616</v>
+        <v>0.078953118364384</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.404957721111082</v>
+        <v>0.595042278888918</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.184610325696409</v>
+        <v>0.815389674303591</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>0.06714468773296089</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.655405405405405</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.48</v>
+        <v>16.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.015269803694024</v>
+        <v>0.369686234817814</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.145212669292225</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.122899081365615</v>
+        <v>0.780649339955421</v>
       </c>
       <c r="N30" t="n">
-        <v>3.18120910292167</v>
+        <v>2.24052263525948</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.95679463351315</v>
+        <v>0.624827281626306</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H31" t="n">
+        <v>0.564102564102564</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>105</v>
+        <v>1.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.66996343609323</v>
+        <v>0.0041214067268944</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.266754735222063</v>
+        <v>-0.0311026296934548</v>
       </c>
       <c r="M31" t="n">
-        <v>6.27023883521793</v>
+        <v>0.0413022992838296</v>
       </c>
       <c r="N31" t="n">
-        <v>3.49520327246974</v>
+        <v>0.257587920430902</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.401626323714989</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.804733727810651</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.59</v>
+        <v>10.54</v>
       </c>
       <c r="K32" t="n">
-        <v>0.370025524361891</v>
+        <v>-0.0042652783184117</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.586905332982132</v>
+        <v>-0.0359128053990315</v>
       </c>
       <c r="M32" t="n">
-        <v>0.669109354637815</v>
+        <v>0.0234654204834127</v>
       </c>
       <c r="N32" t="n">
-        <v>8.06155826496494</v>
+        <v>-0.0404675362278154</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.053702318165127</v>
+        <v>0.334352976091811</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0232558139534884</v>
       </c>
       <c r="H33" t="n">
+        <v>0.354651162790698</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.5545</v>
+        <v>0.024</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0142863447559709</v>
+        <v>0.0001080598134848</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0342950875156759</v>
+        <v>-0.000391228915803</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0039625231284729</v>
+        <v>0.0006155675938145</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.57643728691991</v>
+        <v>0.450249222853468</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.118961594316849</v>
+        <v>0.946849602567471</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.575581395348837</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>118.5</v>
+        <v>105.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.914321756225424</v>
+        <v>-1.75872205912612</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.74625150470075</v>
+        <v>-4.65286624203822</v>
       </c>
       <c r="M34" t="n">
-        <v>0.184891326355808</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.771579541118502</v>
+        <v>-1.66703512713376</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.819223636066454</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.313609467455621</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.698224852071006</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4.83</v>
+        <v>0.0328791255435833</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.274645348837209</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.639978270405923</v>
+        <v>-0.0008193679901279</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.004586344666831</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-5.68623910636044</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1166 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.270518932308457</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.328947368421053</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.111842105263158</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.092369976373122</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0194805194805195</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.837662337662338</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0013336376083979</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0004881215822434</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0034056923162044</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.854895902819226</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999998036488599</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.547058823529412</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0323230088495577</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0203271149219126</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0434821428571429</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.423076032062273</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.434060680450704</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0057803468208092</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.820809248554913</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0002363834183947</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0037857777467043</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0030565002055746</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0972771269114153</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.17630957385759</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.529069767441861</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0024429821962438</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0018168957131681</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0063442486139704</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.603205480554028</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.317676896889264</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.453488372093023</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0001900861921868</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0005003814379476</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0009051355542619</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.447261628675049</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.08305046729448851</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7906976744186049</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0184686256598186</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0042980884011162</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0418512298457246</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.17261115300435</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.015269803694024</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.145212669292225</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.122899081365615</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.18120910292167</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>105</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.66996343609323</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.266754735222063</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6.27023883521793</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.49520327246974</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.370025524361891</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.586905332982132</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.669109354637815</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.06155826496494</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5545</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0142863447559709</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0342950875156759</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0039625231284729</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-2.57643728691991</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.118961594316849</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.914321756225424</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.74625150470075</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.184891326355808</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.771579541118502</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.274645348837209</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.639978270405923</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.004586344666831</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-5.68623910636044</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
+++ b/trend_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.850885315813562</v>
+        <v>0.970475354421676</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.803921568627451</v>
+        <v>0.811320754716981</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.63508887425938</v>
+        <v>-2.54183543357212</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.71821629676789</v>
+        <v>-5.14500825323009</v>
       </c>
       <c r="M2" t="n">
-        <v>0.860928841913455</v>
+        <v>-0.260960334246224</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.6181698485846</v>
+        <v>-15.8864714598257</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -660,17 +660,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.552836632108618</v>
+        <v>0.391986737723319</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.653846153846154</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.0013659311892296</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.169369662615666</v>
+        <v>-0.385902472939293</v>
       </c>
       <c r="M3" t="n">
-        <v>0.19279995471506</v>
+        <v>0.146975010255824</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0.068296559461481</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.248758888064994</v>
+        <v>0.144959226971285</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.82</v>
+        <v>10.84</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0470951365851129</v>
+        <v>-0.0501717032967037</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.11862044898817</v>
+        <v>-0.0921251575469548</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0198436504860961</v>
+        <v>0.009728185594616899</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.435260042376274</v>
+        <v>-0.462838591298005</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,28 +846,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.457214582471497</v>
+        <v>0.435986176121606</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.620689655172414</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0255</v>
+        <v>0.025</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0021736004560591</v>
+        <v>-0.0021153474903474</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0024970295218434</v>
+        <v>0.0024843270741569</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.129697629845787</v>
+        <v>0.0573374233722892</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.672413793103448</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>8.74501197126895</v>
+        <v>13.3791208791209</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.51634997535421</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.3453171702484</v>
+        <v>30.2088704280748</v>
       </c>
       <c r="N6" t="n">
-        <v>8.328582829779959</v>
+        <v>12.1628371628372</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.197092364149835</v>
+        <v>0.376053020139358</v>
       </c>
       <c r="G7" t="n">
-        <v>0.285714285714286</v>
+        <v>0.303571428571429</v>
       </c>
       <c r="H7" t="n">
-        <v>0.75</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0509379762791492</v>
+        <v>0.0585380118874926</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006408912518683</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0003928771186341</v>
+        <v>-0.0034473728748607</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0087464433811056</v>
+        <v>0.0049398366389591</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25817965039715</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.720185508207546</v>
+        <v>0.998611729843667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.258620689655172</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H8" t="n">
         <v>0.120689655172414</v>
@@ -1134,16 +1134,16 @@
         <v>0.003</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0003893923240938</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0002970715016376</v>
+        <v>-0.0006925266289465</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-12.9797441364606</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.770113676725717</v>
+        <v>0.0005718248837235001</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1505</v>
+        <v>0.1735</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0047618383416994</v>
+        <v>0.0183931357557537</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0143825549450549</v>
+        <v>0.0105306274982784</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0028466919898982</v>
+        <v>0.0262971969538859</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.16401218717572</v>
+        <v>10.6012309831433</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.078953118364384</v>
+        <v>0.0003510542665879</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.684210526315789</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>7.7</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0337228010800861</v>
+        <v>-0.0824860036782607</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.08341047449685959</v>
+        <v>-0.1259076401164</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004713612870086</v>
+        <v>-0.0400132948955853</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.437958455585534</v>
+        <v>-1.07124680101637</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.331260291770029</v>
+        <v>6.540050049862431e-05</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.88135593220339</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0048350182858542</v>
+        <v>0.0358610782994387</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0150830663383005</v>
+        <v>0.020434685469993</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0179631563869084</v>
+        <v>0.0435710085895104</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85962241763626</v>
+        <v>13.281880851644</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.401107055994873</v>
+        <v>0.0003140818908353</v>
       </c>
       <c r="G12" t="n">
-        <v>0.120689655172414</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.224137931034483</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.445</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0347888697387518</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.283625939150103</v>
+        <v>0.0233524449353603</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4622042027884</v>
+        <v>0.0498727889661643</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>7.81772353679816</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1566,11 +1566,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.187521811779306</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.445</v>
+        <v>0.0445</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.0019815441138599</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0147766087319088</v>
+        <v>-0.0009860763456425001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.030103021978022</v>
+        <v>0.003844665619893</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.45290812103358</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.328890236075603</v>
+        <v>0.727002737579563</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.689655172413793</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.045</v>
+        <v>1.58</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007051158301158</v>
+        <v>-0.0409974489795919</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0020671855447125</v>
+        <v>-0.176545331206765</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0033252913538171</v>
+        <v>0.117202582348571</v>
       </c>
       <c r="N14" t="n">
-        <v>1.56692406692407</v>
+        <v>-2.5947752518729</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.383733986980362</v>
+        <v>0.740932015092753</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.931034482758621</v>
+        <v>0.691588785046729</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.835</v>
+        <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0311716141001856</v>
+        <v>-0.258309759547383</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0623910241377786</v>
+        <v>-1.20396475052793</v>
       </c>
       <c r="M15" t="n">
-        <v>0.161405401349544</v>
+        <v>0.417103718064078</v>
       </c>
       <c r="N15" t="n">
-        <v>1.69872556404281</v>
+        <v>-1.61443599717115</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.835761065771774</v>
+        <v>0.300392456770525</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H16" t="n">
-        <v>0.675925925925926</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>17.5</v>
+        <v>1.91</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.555091185410334</v>
+        <v>-0.0217979554459146</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.6696841530443</v>
+        <v>-0.121046552266538</v>
       </c>
       <c r="M16" t="n">
-        <v>0.340911532416577</v>
+        <v>0.0377061255816647</v>
       </c>
       <c r="N16" t="n">
-        <v>-3.1719496309162</v>
+        <v>-1.14125421182799</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.74323505069805</v>
+        <v>0.838808731486283</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0151515151515152</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.772727272727273</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.75</v>
+        <v>10.66</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0207057823129251</v>
+        <v>0.0116693290734825</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0408684765781937</v>
+        <v>-0.0179499082343771</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0898582832126632</v>
+        <v>0.0376501863987708</v>
       </c>
       <c r="N17" t="n">
-        <v>1.18318756073858</v>
+        <v>0.109468377800023</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.595042278888918</v>
+        <v>0.0788655232974436</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.837606837606838</v>
+        <v>0.398305084745763</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.58</v>
+        <v>0.025</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0050171703296702</v>
+        <v>0.0006124245472837</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.037251664271393</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.041733149678704</v>
+        <v>0.0014127739582726</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0474212696566184</v>
+        <v>2.44969818913481</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.145864455452638</v>
+        <v>0.335656399225632</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.406779661016949</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.025</v>
+        <v>99.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004617572692793</v>
+        <v>0.79935754638513</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002428617942917</v>
+        <v>-2.50935720001962</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0012945677796456</v>
+        <v>4.74405508826751</v>
       </c>
       <c r="N19" t="n">
-        <v>1.84702907711757</v>
+        <v>0.803374418477518</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.594209891490883</v>
+        <v>0.0003758549302096</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="H20" t="n">
-        <v>0.576271186440678</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>98.5</v>
+        <v>0.0297184809146767</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.390369154654869</v>
+        <v>0.002312745255109</v>
       </c>
       <c r="L20" t="n">
-        <v>-5.27699814830736</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3.02196196472253</v>
+        <v>0.004098176522088</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.396313862593776</v>
+        <v>7.78217857685599</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9948154965236</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.26271186440678</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.110169491525424</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0045501533977522</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.344827586206897</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.672413793103448</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>0.0287481131017017</v>
+        <v>0.003</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000640502123578</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0002496973538207</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0032265080592179</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.22797969839669</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,46 +2374,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.934741289611019</v>
+        <v>2.60526719938767e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.211864406779661</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H22" t="n">
-        <v>0.11864406779661</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003</v>
+        <v>0.1641</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0096434251058914</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0001667047010497</v>
+        <v>0.0051906431738519</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0130634328044691</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.87655399505875</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,46 +2465,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0001983292352314</v>
+        <v>0.537550855239457</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.898305084745763</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.14595</v>
+        <v>7.66</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0067723793291439</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0038845985487963</v>
+        <v>-0.0106519035838962</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0105395894812379</v>
+        <v>0.0121816548085478</v>
       </c>
       <c r="N23" t="n">
-        <v>4.64020509019798</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.815389674303591</v>
+        <v>4.97755365459598e-09</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H24" t="n">
-        <v>0.538461538461538</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.66</v>
+        <v>0.245</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0064417989417988</v>
+        <v>0.0192236842105263</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0045106189839864</v>
+        <v>0.0147413122926417</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0173401100738925</v>
+        <v>0.0228147773888041</v>
       </c>
       <c r="N24" t="n">
-        <v>0.08409659192948921</v>
+        <v>7.84640171858217</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.98262968034895e-06</v>
+        <v>0.000125268683404</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.823529411764706</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.23</v>
+        <v>0.4185</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0149081632653061</v>
+        <v>0.0118110676049794</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0079972799085327</v>
+        <v>0.0071684442967328</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0191071071452278</v>
+        <v>0.0200130252785309</v>
       </c>
       <c r="N25" t="n">
-        <v>6.48181011535049</v>
+        <v>2.82223837633916</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.06672690933298429</v>
+        <v>0.0300120864967086</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09322033898305079</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.186440677966102</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>0.044</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0012105396477585</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0001579378430462</v>
       </c>
       <c r="M26" t="n">
-        <v>0.19991789819376</v>
+        <v>0.002127183967112</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.7512264721785</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0047063292018803</v>
+        <v>0.0768625599356203</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.627118644067797</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4035</v>
+        <v>1.595</v>
       </c>
       <c r="K27" t="n">
-        <v>0.009541043500882401</v>
+        <v>0.0328654735552218</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0033110868393074</v>
+        <v>-0.009974662891799199</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0152067429178339</v>
+        <v>0.09615624513567381</v>
       </c>
       <c r="N27" t="n">
-        <v>2.36457088002044</v>
+        <v>2.06053125738067</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0319379277670222</v>
+        <v>0.294651701323465</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5</v>
+        <v>0.654088050314465</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0435</v>
+        <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0012103539985326</v>
+        <v>0.107258222396241</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001163768932414</v>
+        <v>-0.39215409532894</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0020150147608425</v>
+        <v>0.469715521027831</v>
       </c>
       <c r="N28" t="n">
-        <v>2.78242298513253</v>
+        <v>0.670363889976507</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.651932104910191</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0093457943925233</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.588785046728972</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.084773140791588</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.830508474576271</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.635</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="n">
-        <v>0.034199977653925</v>
+        <v>0.0069263590391909</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0100065444421858</v>
+        <v>-0.034082410247027</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0880696566628909</v>
+        <v>0.0500708602995276</v>
       </c>
       <c r="N29" t="n">
-        <v>2.09174175253364</v>
+        <v>0.432897439949431</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.06714468773296089</v>
+        <v>0.963466346875791</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.655405405405405</v>
+        <v>0.8</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>16.5</v>
+        <v>10.52</v>
       </c>
       <c r="K30" t="n">
-        <v>0.369686234817814</v>
+        <v>0.0248319286074149</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.0029639199586895</v>
       </c>
       <c r="M30" t="n">
-        <v>0.780649339955421</v>
+        <v>0.0450706420020994</v>
       </c>
       <c r="N30" t="n">
-        <v>2.24052263525948</v>
+        <v>0.236044948739685</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.624827281626306</v>
+        <v>0.159086951972611</v>
       </c>
       <c r="G31" t="n">
-        <v>0.008547008547008499</v>
+        <v>0.023121387283237</v>
       </c>
       <c r="H31" t="n">
-        <v>0.564102564102564</v>
+        <v>0.335260115606936</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.6</v>
+        <v>0.024</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0041214067268944</v>
+        <v>0.0002722368482453</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0311026296934548</v>
+        <v>-0.0001843375960894</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0413022992838296</v>
+        <v>0.0007297702297702</v>
       </c>
       <c r="N31" t="n">
-        <v>0.257587920430902</v>
+        <v>1.13432020102248</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.401626323714989</v>
+        <v>0.915662307202035</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.804733727810651</v>
+        <v>0.583815028901734</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.54</v>
+        <v>109</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0042652783184117</v>
+        <v>-1.74760765550239</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0359128053990315</v>
+        <v>-4.28424359560155</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0234654204834127</v>
+        <v>0.0963978657775334</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0404675362278154</v>
+        <v>-1.60330977569027</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.334352976091811</v>
+        <v>0.5651954979746679</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0232558139534884</v>
+        <v>0.329411764705882</v>
       </c>
       <c r="H33" t="n">
-        <v>0.354651162790698</v>
+        <v>0.6823529411764711</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.024</v>
+        <v>0.0315191896258499</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001080598134848</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.000391228915803</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0006155675938145</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.450249222853468</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.946849602567471</v>
+        <v>0.724956628414625</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.347560975609756</v>
       </c>
       <c r="H34" t="n">
-        <v>0.575581395348837</v>
+        <v>0.103658536585366</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>105.5</v>
+        <v>0.003</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.75872205912612</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.65286624203822</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.66703512713376</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3564,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.819223636066454</v>
+        <v>0.0018163660060682</v>
       </c>
       <c r="G35" t="n">
-        <v>0.313609467455621</v>
+        <v>0.0182926829268293</v>
       </c>
       <c r="H35" t="n">
-        <v>0.698224852071006</v>
+        <v>0.835365853658537</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0328791255435833</v>
+        <v>0.16</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0032570969626168</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0008193679901279</v>
+        <v>0.001330095212184</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0052178571428571</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.03568560163551</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.270518932308457</v>
+        <v>0.999827869589735</v>
       </c>
       <c r="G36" t="n">
-        <v>0.328947368421053</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.111842105263158</v>
+        <v>0.514619883040936</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003</v>
+        <v>7.64</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0228352610190684</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0122770137565188</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0343093507172851</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.298890851034926</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.092369976373122</v>
+        <v>0.0072991681267584</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0194805194805195</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H37" t="n">
-        <v>0.837662337662338</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.156</v>
+        <v>0.244</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0013336376083979</v>
+        <v>0.0045329722339082</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0004881215822434</v>
+        <v>0.0014523039343925</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0034056923162044</v>
+        <v>0.0072541439276388</v>
       </c>
       <c r="N37" t="n">
-        <v>0.854895902819226</v>
+        <v>1.85777550570012</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999998036488599</v>
+        <v>0.008390524423666</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.547058823529412</v>
+        <v>0.520231213872832</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.64</v>
+        <v>0.39</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0323230088495577</v>
+        <v>0.0062286834924965</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0203271149219126</v>
+        <v>0.0016795584809381</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0434821428571429</v>
+        <v>0.0099765419993018</v>
       </c>
       <c r="N38" t="n">
-        <v>0.423076032062273</v>
+        <v>1.59709833140938</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.434060680450704</v>
+        <v>0.155386488019286</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0057803468208092</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.820809248554913</v>
+        <v>0.433526011560694</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.243</v>
+        <v>0.043</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0002363834183947</v>
+        <v>0.0003642483171278</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0037857777467043</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0030565002055746</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0972771269114153</v>
+        <v>0.847089109599763</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.17630957385759</v>
+        <v>0.25802983517715</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.529069767441861</v>
+        <v>0.791907514450867</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.405</v>
+        <v>1.57</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0024429821962438</v>
+        <v>0.009106207928197401</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0018168957131681</v>
+        <v>-0.0147990091360196</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0063442486139704</v>
+        <v>0.0314394843183543</v>
       </c>
       <c r="N40" t="n">
-        <v>0.603205480554028</v>
+        <v>0.580013243834233</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.317676896889264</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.453488372093023</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0425</v>
+        <v>0.48</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001900861921868</v>
+        <v>0.0623113138141261</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0005003814379476</v>
+        <v>-0.0340012361200613</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0009051355542619</v>
+        <v>0.122899081365615</v>
       </c>
       <c r="N41" t="n">
-        <v>0.447261628675049</v>
+        <v>12.9815237112763</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.08305046729448851</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.7906976744186049</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.575</v>
+        <v>110.91</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0184686256598186</v>
+        <v>4.00239343578179</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0042980884011162</v>
+        <v>1.18649835658679</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0418512298457246</v>
+        <v>6.27023883521793</v>
       </c>
       <c r="N42" t="n">
-        <v>1.17261115300435</v>
+        <v>3.60868581352609</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.59675202974633</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.48</v>
+        <v>4.65</v>
       </c>
       <c r="K43" t="n">
-        <v>0.015269803694024</v>
+        <v>0.655065399201439</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.145212669292225</v>
+        <v>-0.184447477012996</v>
       </c>
       <c r="M43" t="n">
-        <v>0.122899081365615</v>
+        <v>1.14535680422064</v>
       </c>
       <c r="N43" t="n">
-        <v>3.18120910292167</v>
+        <v>14.0874279398159</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.95679463351315</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105</v>
+        <v>0.55</v>
       </c>
       <c r="K44" t="n">
-        <v>3.66996343609323</v>
+        <v>-0.0120255301339286</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.266754735222063</v>
+        <v>-0.0295864376345203</v>
       </c>
       <c r="M44" t="n">
-        <v>6.27023883521793</v>
+        <v>0.0021716456009542</v>
       </c>
       <c r="N44" t="n">
-        <v>3.49520327246974</v>
+        <v>-2.18646002435065</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.768783636774762</v>
+        <v>0.161618161662385</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.59</v>
+        <v>117.945</v>
       </c>
       <c r="K45" t="n">
-        <v>0.370025524361891</v>
+        <v>-0.331148303812668</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.586905332982132</v>
+        <v>-2.40830667314239</v>
       </c>
       <c r="M45" t="n">
-        <v>0.669109354637815</v>
+        <v>0.967733819536711</v>
       </c>
       <c r="N45" t="n">
-        <v>8.06155826496494</v>
+        <v>-0.280765020825528</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.053702318165127</v>
+        <v>0.5</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5545</v>
+        <v>4.83</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0142863447559709</v>
+        <v>-0.0314870689655175</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0342950875156759</v>
+        <v>-0.432227767415259</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0039625231284729</v>
+        <v>0.326627666074914</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.57643728691991</v>
+        <v>-0.651906189762267</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4616,180 +4608,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mangawhero at d/s Ohakune STP</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.118961594316849</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>118.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-0.914321756225424</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-2.74625150470075</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.184891326355808</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-0.771579541118502</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1805147.179</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5635222.139</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Whau_3d</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mangawhero at d/s Ohakune STP</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.07620314197837499</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.274645348837209</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.639978270405923</v>
-      </c>
-      <c r="M48" t="n">
-        <v>-0.004586344666831</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-5.68623910636044</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1805147.179</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5635222.139</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Whau_3d</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
+++ b/trend_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -139,9 +139,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
@@ -151,49 +148,46 @@
     <t>Impact</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
     <t>Likely improving</t>
   </si>
   <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -675,38 +669,38 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.970475354421676</v>
+        <v>0.992089378696562</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.811320754716981</v>
+        <v>0.872340425531915</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="K2">
-        <v>-2.54183543357212</v>
+        <v>-4.3663318452381</v>
       </c>
       <c r="L2">
-        <v>-5.14500825323009</v>
+        <v>-8.420787291953671</v>
       </c>
       <c r="M2">
-        <v>-0.260960334246224</v>
+        <v>-1.37782461125133</v>
       </c>
       <c r="N2">
-        <v>-15.8864714598257</v>
+        <v>-30.1126334154351</v>
       </c>
       <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q2">
         <v>1805147.179</v>
       </c>
@@ -714,19 +708,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" t="s">
         <v>62</v>
-      </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -746,37 +740,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.391986737723319</v>
+        <v>0.057168945893365</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="K3">
-        <v>-0.0013659311892296</v>
+        <v>-0.378586473093052</v>
       </c>
       <c r="L3">
-        <v>-0.385902472939293</v>
+        <v>-0.820956803195395</v>
       </c>
       <c r="M3">
-        <v>0.146975010255824</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.068296559461481</v>
+        <v>-20.7444642790713</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1805147.179</v>
@@ -785,19 +779,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
         <v>63</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -817,37 +811,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.144959226971285</v>
+        <v>0.272674834005562</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8947368421052631</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.84</v>
+        <v>10.82</v>
       </c>
       <c r="K4">
-        <v>-0.0501717032967037</v>
+        <v>-0.0337758787265363</v>
       </c>
       <c r="L4">
-        <v>-0.0921251575469548</v>
+        <v>-0.081659360558241</v>
       </c>
       <c r="M4">
-        <v>0.009728185594616899</v>
+        <v>0.0443608315045453</v>
       </c>
       <c r="N4">
-        <v>-0.462838591298005</v>
+        <v>-0.312161540910687</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1805147.179</v>
@@ -856,19 +850,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -885,40 +879,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.435986176121606</v>
+        <v>0.0466018742415183</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.568965517241379</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0020519662921348</v>
       </c>
       <c r="L5">
-        <v>-0.0021153474903474</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0024843270741569</v>
+        <v>0.0044879602620162</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.5498595505618</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1805147.179</v>
@@ -927,19 +921,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -959,34 +953,34 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.0573374233722892</v>
+        <v>0.361039862335802</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.724137931034483</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>110</v>
+        <v>110.8</v>
       </c>
       <c r="K6">
-        <v>13.3791208791209</v>
+        <v>2.42691029900332</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-12.1326372595228</v>
       </c>
       <c r="M6">
-        <v>30.2088704280748</v>
+        <v>19.5732129252079</v>
       </c>
       <c r="N6">
-        <v>12.1628371628372</v>
+        <v>2.19035225541816</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -998,19 +992,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1027,40 +1021,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.376053020139358</v>
+        <v>0.253524824743833</v>
       </c>
       <c r="G7">
-        <v>0.303571428571429</v>
+        <v>0.280701754385965</v>
       </c>
       <c r="H7">
-        <v>0.732142857142857</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0585380118874926</v>
+        <v>0.0603753938843172</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0034473728748607</v>
+        <v>-0.001981648938629</v>
       </c>
       <c r="M7">
-        <v>0.0049398366389591</v>
+        <v>0.008133697040859899</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1805147.179</v>
@@ -1069,19 +1063,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1098,40 +1092,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.998611729843667</v>
+        <v>0.967213229133163</v>
       </c>
       <c r="G8">
-        <v>0.310344827586207</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="H8">
-        <v>0.120689655172414</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K8">
-        <v>-0.0003893923240938</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0006925266289465</v>
+        <v>-0.0004612878258805</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-12.9797441364606</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1805147.179</v>
@@ -1140,19 +1134,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1172,37 +1166,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0005718248837235001</v>
+        <v>0.105056163764983</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.913793103448276</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1735</v>
+        <v>0.1865</v>
       </c>
       <c r="K9">
-        <v>0.0183931357557537</v>
+        <v>0.0093653846153846</v>
       </c>
       <c r="L9">
-        <v>0.0105306274982784</v>
+        <v>-0.0045754551386575</v>
       </c>
       <c r="M9">
-        <v>0.0262971969538859</v>
+        <v>0.0211503531748224</v>
       </c>
       <c r="N9">
-        <v>10.6012309831433</v>
+        <v>5.02165394926789</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1805147.179</v>
@@ -1211,19 +1205,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1243,34 +1237,34 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0003510542665879</v>
+        <v>0.054352740555621</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.771929824561403</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.7</v>
+        <v>7.655</v>
       </c>
       <c r="K10">
-        <v>-0.0824860036782607</v>
+        <v>-0.0401373626373618</v>
       </c>
       <c r="L10">
-        <v>-0.1259076401164</v>
+        <v>-0.09076470048231999</v>
       </c>
       <c r="M10">
-        <v>-0.0400132948955853</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-1.07124680101637</v>
+        <v>-0.5243287085220349</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
         <v>51</v>
@@ -1282,16 +1276,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1311,37 +1305,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>6.540050049862431E-05</v>
+        <v>0.0057699942451294</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.966101694915254</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.27</v>
+        <v>0.278</v>
       </c>
       <c r="K11">
-        <v>0.0358610782994387</v>
+        <v>0.0377960164835165</v>
       </c>
       <c r="L11">
-        <v>0.020434685469993</v>
+        <v>0.0143055760895184</v>
       </c>
       <c r="M11">
-        <v>0.0435710085895104</v>
+        <v>0.0503668781951574</v>
       </c>
       <c r="N11">
-        <v>13.281880851644</v>
+        <v>13.5956893825599</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q11">
         <v>1805147.179</v>
@@ -1350,19 +1344,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1382,37 +1376,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0003140818908353</v>
+        <v>0.0030475358057765</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.655172413793103</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.445</v>
+        <v>0.46</v>
       </c>
       <c r="K12">
-        <v>0.0347888697387518</v>
+        <v>0.0367925824175824</v>
       </c>
       <c r="L12">
-        <v>0.0233524449353603</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="M12">
-        <v>0.0498727889661643</v>
+        <v>0.060206043956044</v>
       </c>
       <c r="N12">
-        <v>7.81772353679816</v>
+        <v>7.99838748208313</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q12">
         <v>1805147.179</v>
@@ -1421,19 +1415,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1447,43 +1441,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.187521811779306</v>
+        <v>0.138326432405004</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.620689655172414</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0445</v>
+        <v>0.045</v>
       </c>
       <c r="K13">
-        <v>0.0019815441138599</v>
+        <v>0.0015529336734693</v>
       </c>
       <c r="L13">
-        <v>-0.0009860763456425001</v>
+        <v>-0.0010297923012522</v>
       </c>
       <c r="M13">
-        <v>0.003844665619893</v>
+        <v>0.0051237150384597</v>
       </c>
       <c r="N13">
-        <v>4.45290812103358</v>
+        <v>3.45096371882086</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1805147.179</v>
@@ -1492,19 +1486,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1524,34 +1518,34 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.727002737579563</v>
+        <v>0.886403001500949</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.931034482758621</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="K14">
-        <v>-0.0409974489795919</v>
+        <v>-0.114237109044801</v>
       </c>
       <c r="L14">
-        <v>-0.176545331206765</v>
+        <v>-0.260892857142857</v>
       </c>
       <c r="M14">
-        <v>0.117202582348571</v>
+        <v>0.0532409498531825</v>
       </c>
       <c r="N14">
-        <v>-2.5947752518729</v>
+        <v>-7.6669200701209</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
         <v>53</v>
@@ -1563,19 +1557,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1589,43 +1583,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.740932015092753</v>
+        <v>0.435921354364974</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.691588785046729</v>
+        <v>0.715686274509804</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>14.25</v>
       </c>
       <c r="K15">
-        <v>-0.258309759547383</v>
+        <v>0.0123228744939272</v>
       </c>
       <c r="L15">
-        <v>-1.20396475052793</v>
+        <v>-0.662555741366549</v>
       </c>
       <c r="M15">
-        <v>0.417103718064078</v>
+        <v>0.421200165256424</v>
       </c>
       <c r="N15">
-        <v>-1.61443599717115</v>
+        <v>0.0864763122380855</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1805147.179</v>
@@ -1634,19 +1628,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" t="s">
+        <v>61</v>
+      </c>
+      <c r="W15" t="s">
         <v>62</v>
-      </c>
-      <c r="V15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1666,37 +1660,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.300392456770525</v>
+        <v>0.452514384107016</v>
       </c>
       <c r="G16">
-        <v>0.0178571428571429</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H16">
-        <v>0.785714285714286</v>
+        <v>0.787234042553192</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K16">
-        <v>-0.0217979554459146</v>
+        <v>-0.0027318623784592</v>
       </c>
       <c r="L16">
-        <v>-0.121046552266538</v>
+        <v>-0.0828963865320433</v>
       </c>
       <c r="M16">
-        <v>0.0377061255816647</v>
+        <v>0.06781334724894671</v>
       </c>
       <c r="N16">
-        <v>-1.14125421182799</v>
+        <v>-0.143782230445223</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1805147.179</v>
@@ -1705,19 +1699,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
+        <v>61</v>
+      </c>
+      <c r="W16" t="s">
         <v>63</v>
-      </c>
-      <c r="W16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1737,34 +1731,34 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.838808731486283</v>
+        <v>0.890786393747075</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.837606837606838</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.66</v>
+        <v>10.75</v>
       </c>
       <c r="K17">
-        <v>0.0116693290734825</v>
+        <v>0.0150034230944774</v>
       </c>
       <c r="L17">
-        <v>-0.0179499082343771</v>
+        <v>-0.0105037510062732</v>
       </c>
       <c r="M17">
-        <v>0.0376501863987708</v>
+        <v>0.0418100197383924</v>
       </c>
       <c r="N17">
-        <v>0.109468377800023</v>
+        <v>0.139566726460255</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
         <v>54</v>
@@ -1776,19 +1770,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1808,37 +1802,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0788655232974436</v>
+        <v>0.123692671059306</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.398305084745763</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.025</v>
+        <v>0.0255</v>
       </c>
       <c r="K18">
-        <v>0.0006124245472837</v>
+        <v>0.000451762523191</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0001843765774861</v>
       </c>
       <c r="M18">
-        <v>0.0014127739582726</v>
+        <v>0.0012300966978148</v>
       </c>
       <c r="N18">
-        <v>2.44969818913481</v>
+        <v>1.77161773800429</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1805147.179</v>
@@ -1847,19 +1841,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1879,13 +1873,13 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.335656399225632</v>
+        <v>0.279786095738534</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.567796610169492</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1894,22 +1888,22 @@
         <v>99.5</v>
       </c>
       <c r="K19">
-        <v>0.79935754638513</v>
+        <v>1.38373099503236</v>
       </c>
       <c r="L19">
-        <v>-2.50935720001962</v>
+        <v>-1.83523000458332</v>
       </c>
       <c r="M19">
-        <v>4.74405508826751</v>
+        <v>4.41826962619807</v>
       </c>
       <c r="N19">
-        <v>0.803374418477518</v>
+        <v>1.39068441711795</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1805147.179</v>
@@ -1918,19 +1912,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1947,40 +1941,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.0003758549302096</v>
+        <v>0.0002341349482328</v>
       </c>
       <c r="G20">
-        <v>0.344827586206897</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H20">
-        <v>0.672413793103448</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.0297184809146767</v>
+        <v>0.0330120751766925</v>
       </c>
       <c r="K20">
-        <v>0.002312745255109</v>
+        <v>0.0028861490144866</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.004098176522088</v>
+        <v>0.0050246378320198</v>
       </c>
       <c r="N20">
-        <v>7.78217857685599</v>
+        <v>8.74270702171548</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q20">
         <v>1805147.179</v>
@@ -1989,19 +1983,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2018,16 +2012,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.9948154965236</v>
+        <v>0.999043113884522</v>
       </c>
       <c r="G21">
-        <v>0.26271186440678</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="H21">
-        <v>0.110169491525424</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2036,23 +2030,23 @@
         <v>0.003</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0001260351966873</v>
       </c>
       <c r="L21">
-        <v>-0.0002496973538207</v>
+        <v>-0.0002851288056206</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-4.20117322291235</v>
       </c>
       <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="s">
         <v>44</v>
       </c>
-      <c r="P21" t="s">
-        <v>49</v>
-      </c>
       <c r="Q21">
         <v>1805147.179</v>
       </c>
@@ -2060,19 +2054,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2092,10 +2086,10 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>2.60526719938767E-05</v>
+        <v>0.0222651725332902</v>
       </c>
       <c r="G22">
-        <v>0.0254237288135593</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H22">
         <v>0.864406779661017</v>
@@ -2104,25 +2098,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.1641</v>
+        <v>0.18</v>
       </c>
       <c r="K22">
-        <v>0.0096434251058914</v>
+        <v>0.0039369046812382</v>
       </c>
       <c r="L22">
-        <v>0.0051906431738519</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="M22">
-        <v>0.0130634328044691</v>
+        <v>0.0086545815720852</v>
       </c>
       <c r="N22">
-        <v>5.87655399505875</v>
+        <v>2.18716926735459</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1805147.179</v>
@@ -2131,19 +2125,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2160,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.537550855239457</v>
+        <v>0.297983061366959</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2175,25 +2169,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-0.0035012474524908</v>
       </c>
       <c r="L23">
-        <v>-0.0106519035838962</v>
+        <v>-0.0148930418691473</v>
       </c>
       <c r="M23">
-        <v>0.0121816548085478</v>
+        <v>0.008571453533510799</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-0.0456485978160474</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1805147.179</v>
@@ -2202,16 +2196,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2231,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>4.97755365459598E-09</v>
+        <v>1.78536283598919E-05</v>
       </c>
       <c r="G24">
         <v>0.008403361344537799</v>
@@ -2243,25 +2237,25 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.245</v>
+        <v>0.267</v>
       </c>
       <c r="K24">
-        <v>0.0192236842105263</v>
+        <v>0.015553228021978</v>
       </c>
       <c r="L24">
-        <v>0.0147413122926417</v>
+        <v>0.0099983065652881</v>
       </c>
       <c r="M24">
-        <v>0.0228147773888041</v>
+        <v>0.0201204090095073</v>
       </c>
       <c r="N24">
-        <v>7.84640171858217</v>
+        <v>5.8251790344487</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1805147.179</v>
@@ -2270,19 +2264,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2302,37 +2296,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.000125268683404</v>
+        <v>0.0073204887703168</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.567796610169492</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4185</v>
+        <v>0.43</v>
       </c>
       <c r="K25">
-        <v>0.0118110676049794</v>
+        <v>0.0099911121848508</v>
       </c>
       <c r="L25">
-        <v>0.0071684442967328</v>
+        <v>0.0049931647300068</v>
       </c>
       <c r="M25">
-        <v>0.0200130252785309</v>
+        <v>0.015051510989011</v>
       </c>
       <c r="N25">
-        <v>2.82223837633916</v>
+        <v>2.32351446159322</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>1805147.179</v>
@@ -2341,19 +2335,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2367,19 +2361,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0300120864967086</v>
+        <v>0.193364802120848</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.491525423728814</v>
+        <v>0.483050847457627</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2388,22 +2382,22 @@
         <v>0.044</v>
       </c>
       <c r="K26">
-        <v>0.0012105396477585</v>
+        <v>0.0004722042663219</v>
       </c>
       <c r="L26">
-        <v>0.0001579378430462</v>
+        <v>-0.0004612894694681</v>
       </c>
       <c r="M26">
-        <v>0.002127183967112</v>
+        <v>0.0014580546235541</v>
       </c>
       <c r="N26">
-        <v>2.7512264721785</v>
+        <v>1.07319151436798</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q26">
         <v>1805147.179</v>
@@ -2412,19 +2406,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2438,43 +2432,43 @@
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0768625599356203</v>
+        <v>0.721900725840228</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.847457627118644</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.595</v>
+        <v>1.555</v>
       </c>
       <c r="K27">
-        <v>0.0328654735552218</v>
+        <v>-0.0161615044247788</v>
       </c>
       <c r="L27">
-        <v>-0.009974662891799199</v>
+        <v>-0.0598124245643674</v>
       </c>
       <c r="M27">
-        <v>0.09615624513567381</v>
+        <v>0.0330681501314372</v>
       </c>
       <c r="N27">
-        <v>2.06053125738067</v>
+        <v>-1.03932504339413</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1805147.179</v>
@@ -2483,19 +2477,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2515,13 +2509,13 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.294651701323465</v>
+        <v>0.82083141954368</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.654088050314465</v>
+        <v>0.643312101910828</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2530,22 +2524,22 @@
         <v>16</v>
       </c>
       <c r="K28">
-        <v>0.107258222396241</v>
+        <v>-0.330797163362953</v>
       </c>
       <c r="L28">
-        <v>-0.39215409532894</v>
+        <v>-0.748323613334225</v>
       </c>
       <c r="M28">
-        <v>0.469715521027831</v>
+        <v>0.145320676683956</v>
       </c>
       <c r="N28">
-        <v>0.670363889976507</v>
+        <v>-2.06748227101846</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1805147.179</v>
@@ -2554,19 +2548,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" t="s">
+        <v>61</v>
+      </c>
+      <c r="W28" t="s">
         <v>62</v>
-      </c>
-      <c r="V28" t="s">
-        <v>63</v>
-      </c>
-      <c r="W28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2586,13 +2580,13 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.651932104910191</v>
+        <v>0.807598318774582</v>
       </c>
       <c r="G29">
-        <v>0.0093457943925233</v>
+        <v>0.0102040816326531</v>
       </c>
       <c r="H29">
-        <v>0.588785046728972</v>
+        <v>0.612244897959184</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2601,22 +2595,22 @@
         <v>1.6</v>
       </c>
       <c r="K29">
-        <v>0.0069263590391909</v>
+        <v>0.0207882754695503</v>
       </c>
       <c r="L29">
-        <v>-0.034082410247027</v>
+        <v>-0.0205392234814921</v>
       </c>
       <c r="M29">
-        <v>0.0500708602995276</v>
+        <v>0.0673308987583793</v>
       </c>
       <c r="N29">
-        <v>0.432897439949431</v>
+        <v>1.2992672168469</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q29">
         <v>1805147.179</v>
@@ -2625,19 +2619,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
+        <v>61</v>
+      </c>
+      <c r="W29" t="s">
         <v>63</v>
-      </c>
-      <c r="W29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2657,37 +2651,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.963466346875791</v>
+        <v>0.993280612825301</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.8</v>
+        <v>0.774566473988439</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.52</v>
+        <v>10.54</v>
       </c>
       <c r="K30">
-        <v>0.0248319286074149</v>
+        <v>0.0301133631054618</v>
       </c>
       <c r="L30">
-        <v>0.0029639199586895</v>
+        <v>0.0100343406593404</v>
       </c>
       <c r="M30">
-        <v>0.0450706420020994</v>
+        <v>0.0485524805806221</v>
       </c>
       <c r="N30">
-        <v>0.236044948739685</v>
+        <v>0.285705532309885</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q30">
         <v>1805147.179</v>
@@ -2696,19 +2690,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2728,37 +2722,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.159086951972611</v>
+        <v>0.0506986325959559</v>
       </c>
       <c r="G31">
-        <v>0.023121387283237</v>
+        <v>0.0229885057471264</v>
       </c>
       <c r="H31">
-        <v>0.335260115606936</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.024</v>
+        <v>0.0245</v>
       </c>
       <c r="K31">
-        <v>0.0002722368482453</v>
+        <v>0.0004003470953598</v>
       </c>
       <c r="L31">
-        <v>-0.0001843375960894</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0007297702297702</v>
+        <v>0.0008455225006604</v>
       </c>
       <c r="N31">
-        <v>1.13432020102248</v>
+        <v>1.63406977697912</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1805147.179</v>
@@ -2767,19 +2761,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2799,37 +2793,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.915662307202035</v>
+        <v>0.925023017977496</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.583815028901734</v>
+        <v>0.597701149425287</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>109</v>
+        <v>101.6</v>
       </c>
       <c r="K32">
-        <v>-1.74760765550239</v>
+        <v>-1.59410801963993</v>
       </c>
       <c r="L32">
-        <v>-4.28424359560155</v>
+        <v>-3.84407884755607</v>
       </c>
       <c r="M32">
-        <v>0.0963978657775334</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>-1.60330977569027</v>
+        <v>-1.56900395633852</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q32">
         <v>1805147.179</v>
@@ -2838,19 +2832,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2867,22 +2861,22 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.5651954979746679</v>
+        <v>0.163945225415726</v>
       </c>
       <c r="G33">
-        <v>0.329411764705882</v>
+        <v>0.319767441860465</v>
       </c>
       <c r="H33">
-        <v>0.6823529411764711</v>
+        <v>0.691860465116279</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33">
-        <v>0.0315191896258499</v>
+        <v>0.0330120751766925</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2891,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.0005805072961505</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1805147.179</v>
@@ -2909,19 +2903,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2938,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.724956628414625</v>
+        <v>0.841901099328545</v>
       </c>
       <c r="G34">
-        <v>0.347560975609756</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="H34">
-        <v>0.103658536585366</v>
+        <v>0.0977011494252874</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2968,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
         <v>53</v>
@@ -2980,19 +2974,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3012,13 +3006,13 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.0018163660060682</v>
+        <v>0.008603325887186999</v>
       </c>
       <c r="G35">
-        <v>0.0182926829268293</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H35">
-        <v>0.835365853658537</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3027,22 +3021,22 @@
         <v>0.16</v>
       </c>
       <c r="K35">
-        <v>0.0032570969626168</v>
+        <v>0.0021384660421545</v>
       </c>
       <c r="L35">
-        <v>0.001330095212184</v>
+        <v>0.0007737986228542</v>
       </c>
       <c r="M35">
-        <v>0.0052178571428571</v>
+        <v>0.0041619501506887</v>
       </c>
       <c r="N35">
-        <v>2.03568560163551</v>
+        <v>1.3365412763466</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q35">
         <v>1805147.179</v>
@@ -3051,19 +3045,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3083,37 +3077,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.999827869589735</v>
+        <v>0.960535219970618</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.514619883040936</v>
+        <v>0.491329479768786</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="K36">
-        <v>0.0228352610190684</v>
+        <v>0.009744378976887199</v>
       </c>
       <c r="L36">
-        <v>0.0122770137565188</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.0343093507172851</v>
+        <v>0.0183675165978244</v>
       </c>
       <c r="N36">
-        <v>0.298890851034926</v>
+        <v>0.127377502965846</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q36">
         <v>1805147.179</v>
@@ -3122,16 +3116,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3151,37 +3145,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0072991681267584</v>
+        <v>0.0017102670425993</v>
       </c>
       <c r="G37">
-        <v>0.0057471264367816</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H37">
-        <v>0.833333333333333</v>
+        <v>0.834285714285714</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.244</v>
+        <v>0.246</v>
       </c>
       <c r="K37">
-        <v>0.0045329722339082</v>
+        <v>0.0050959963603275</v>
       </c>
       <c r="L37">
-        <v>0.0014523039343925</v>
+        <v>0.0023721625825918</v>
       </c>
       <c r="M37">
-        <v>0.0072541439276388</v>
+        <v>0.0095365131610925</v>
       </c>
       <c r="N37">
-        <v>1.85777550570012</v>
+        <v>2.07154323590552</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q37">
         <v>1805147.179</v>
@@ -3190,19 +3184,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3222,37 +3216,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.008390524423666</v>
+        <v>0.0009019822870262</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.520231213872832</v>
+        <v>0.488505747126437</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.39</v>
+        <v>0.4085</v>
       </c>
       <c r="K38">
-        <v>0.0062286834924965</v>
+        <v>0.0083352350524874</v>
       </c>
       <c r="L38">
-        <v>0.0016795584809381</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="M38">
-        <v>0.0099765419993018</v>
+        <v>0.0103763055864063</v>
       </c>
       <c r="N38">
-        <v>1.59709833140938</v>
+        <v>2.04044921725519</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q38">
         <v>1805147.179</v>
@@ -3261,19 +3255,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3293,13 +3287,13 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.155386488019286</v>
+        <v>0.0283838449132353</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.433526011560694</v>
+        <v>0.408045977011494</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3308,22 +3302,22 @@
         <v>0.043</v>
       </c>
       <c r="K39">
-        <v>0.0003642483171278</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="L39">
-        <v>-0.0002496582365003</v>
+        <v>4.80084642388097E-05</v>
       </c>
       <c r="M39">
-        <v>0.001003434065934</v>
+        <v>0.0013656007873728</v>
       </c>
       <c r="N39">
-        <v>0.847089109599763</v>
+        <v>1.55571173013034</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q39">
         <v>1805147.179</v>
@@ -3332,19 +3326,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3364,37 +3358,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.25802983517715</v>
+        <v>0.354052837304978</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.791907514450867</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K40">
-        <v>0.009106207928197401</v>
+        <v>0.0055408070388349</v>
       </c>
       <c r="L40">
-        <v>-0.0147990091360196</v>
+        <v>-0.016801682031172</v>
       </c>
       <c r="M40">
-        <v>0.0314394843183543</v>
+        <v>0.0272484753550239</v>
       </c>
       <c r="N40">
-        <v>0.580013243834233</v>
+        <v>0.362144250904244</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q40">
         <v>1805147.179</v>
@@ -3403,19 +3397,19 @@
         <v>5635222.139</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3435,7 +3429,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.889664319040077</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3447,25 +3441,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.48</v>
+        <v>0.545</v>
       </c>
       <c r="K41">
-        <v>0.0623113138141261</v>
+        <v>0.0209257362890265</v>
       </c>
       <c r="L41">
-        <v>-0.0340012361200613</v>
+        <v>-0.035665812819687</v>
       </c>
       <c r="M41">
-        <v>0.122899081365615</v>
+        <v>0.0424225177868766</v>
       </c>
       <c r="N41">
-        <v>12.9815237112763</v>
+        <v>3.83958464018835</v>
       </c>
       <c r="O41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q41">
         <v>1805147.179</v>
@@ -3474,16 +3468,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3515,25 +3509,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>110.91</v>
+        <v>117.89</v>
       </c>
       <c r="K42">
-        <v>4.00239343578179</v>
+        <v>4.3466917290233</v>
       </c>
       <c r="L42">
-        <v>1.18649835658679</v>
+        <v>1.56673651736254</v>
       </c>
       <c r="M42">
-        <v>6.27023883521793</v>
+        <v>6.32094574276454</v>
       </c>
       <c r="N42">
-        <v>3.60868581352609</v>
+        <v>3.68707416152625</v>
       </c>
       <c r="O42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q42">
         <v>1805147.179</v>
@@ -3542,16 +3536,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3571,7 +3565,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.889664319040077</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3586,22 +3580,22 @@
         <v>4.65</v>
       </c>
       <c r="K43">
-        <v>0.655065399201439</v>
+        <v>-0.0739482123443078</v>
       </c>
       <c r="L43">
-        <v>-0.184447477012996</v>
+        <v>-1.24462140046332</v>
       </c>
       <c r="M43">
-        <v>1.14535680422064</v>
+        <v>0.639339549657562</v>
       </c>
       <c r="N43">
-        <v>14.0874279398159</v>
+        <v>-1.59028413643673</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q43">
         <v>1805147.179</v>
@@ -3610,16 +3604,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3639,7 +3633,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.105248850027669</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3651,25 +3645,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.55</v>
+        <v>0.547</v>
       </c>
       <c r="K44">
-        <v>-0.0120255301339286</v>
+        <v>-0.0068193306010928</v>
       </c>
       <c r="L44">
-        <v>-0.0295864376345203</v>
+        <v>-0.0261302605442878</v>
       </c>
       <c r="M44">
-        <v>0.0021716456009542</v>
+        <v>0.0054483732255387</v>
       </c>
       <c r="N44">
-        <v>-2.18646002435065</v>
+        <v>-1.24667835486159</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q44">
         <v>1805147.179</v>
@@ -3678,16 +3672,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3707,7 +3701,7 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.161618161662385</v>
+        <v>0.6061921166488971</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3722,22 +3716,22 @@
         <v>117.945</v>
       </c>
       <c r="K45">
-        <v>-0.331148303812668</v>
+        <v>0.334279946164203</v>
       </c>
       <c r="L45">
-        <v>-2.40830667314239</v>
+        <v>-1.18199592542669</v>
       </c>
       <c r="M45">
-        <v>0.967733819536711</v>
+        <v>2.96188321918671</v>
       </c>
       <c r="N45">
-        <v>-0.280765020825528</v>
+        <v>0.283420192601808</v>
       </c>
       <c r="O45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q45">
         <v>1805147.179</v>
@@ -3746,16 +3740,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3787,25 +3781,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>4.83</v>
+        <v>4.62</v>
       </c>
       <c r="K46">
         <v>-0.0314870689655175</v>
       </c>
       <c r="L46">
-        <v>-0.432227767415259</v>
+        <v>-0.25932102149303</v>
       </c>
       <c r="M46">
         <v>0.326627666074914</v>
       </c>
       <c r="N46">
-        <v>-0.651906189762267</v>
+        <v>-0.681538289296916</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q46">
         <v>1805147.179</v>
@@ -3814,16 +3808,16 @@
         <v>5635222.139</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
